--- a/data/simulated.xlsx
+++ b/data/simulated.xlsx
@@ -313,16 +313,16 @@
     <t xml:space="preserve">Tokens</t>
   </si>
   <si>
-    <t xml:space="preserve">This Is Contemporary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You! Yes, You!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StART-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Festival Zero</t>
+    <t xml:space="preserve">TIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YYY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZ</t>
   </si>
 </sst>
 </file>
